--- a/output_file2.xlsx
+++ b/output_file2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Full Name</t>
   </si>
@@ -34,103 +34,85 @@
     <t>ABRIAM, AGNES BURGOS</t>
   </si>
   <si>
-    <t>ARCEGA, NOEL CALUNGSOD</t>
-  </si>
-  <si>
-    <t>BALOLOY, SARAH HIZO</t>
+    <t>ATIM, RIZALDY CASTILLO</t>
   </si>
   <si>
     <t>BONGAT, JEFFERSON SY</t>
   </si>
   <si>
-    <t>BORJA, EMMA JULIET</t>
-  </si>
-  <si>
-    <t>COLUMNA, ALMA ZAPATA</t>
-  </si>
-  <si>
-    <t>CORONEJO, FREDDIE BUENO</t>
-  </si>
-  <si>
-    <t>CORONEJO, JOSEPH BUENO</t>
+    <t>BORJA, EMMA JULIET P</t>
   </si>
   <si>
     <t>DE JOSE, GLEDA GICANGAO</t>
   </si>
   <si>
-    <t>DOMIQUIL, CONSTANCIO NAVARRO</t>
+    <t>DELA TORRE, CHERRY BAUTISTA</t>
+  </si>
+  <si>
+    <t>DELOS REYES, ANGELICO ZENON MONTEMAYOR</t>
   </si>
   <si>
     <t>FLORESTA, GLEN</t>
   </si>
   <si>
-    <t>GADIN, CHRISTIAN</t>
-  </si>
-  <si>
     <t>GADIN, VIRGINIA LIWANAG</t>
   </si>
   <si>
-    <t>GAMBOA, MELCHOR</t>
-  </si>
-  <si>
-    <t>INCISO, ARLENE ORAIN</t>
-  </si>
-  <si>
     <t>MAKIRAMDAM, MILYN PANGANIBAN</t>
   </si>
   <si>
-    <t>MARTEJA, ELIZABETH</t>
-  </si>
-  <si>
-    <t>MARTEJA, GEORGE DELA TORRE</t>
-  </si>
-  <si>
-    <t>ROSALLOSA, MARJHON PONPON</t>
+    <t>MENDEZ, REDEEMER DE LEON</t>
+  </si>
+  <si>
+    <t>MOYANO, MARY LAYKA PEDERIO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD, LORA RUTH FRONDA</t>
   </si>
   <si>
     <t>SAMBAJON, MA. CRISTINA FAUNI</t>
   </si>
   <si>
-    <t>SEBESON, PAULA MAE DUSONG</t>
-  </si>
-  <si>
     <t>ADMIN DEPARTMENT</t>
   </si>
   <si>
+    <t>EMD DEPARTMENT</t>
+  </si>
+  <si>
     <t>OFFICE OF THE PRESIDENT</t>
   </si>
   <si>
+    <t>ACCOUNTING DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ENGINEERING DEPARTMENT - ANTIPOLO</t>
+  </si>
+  <si>
+    <t>LEGAL DEPARTMENT</t>
+  </si>
+  <si>
+    <t>HR DEPARTMENT</t>
+  </si>
+  <si>
     <t>TREASURY DEPARTMENT</t>
   </si>
   <si>
-    <t>ENGINEERING DEPARTMENT - ANTIPOLO</t>
-  </si>
-  <si>
-    <t>ENGINEERING DEPARTMENT - CAVITE</t>
-  </si>
-  <si>
-    <t>ACCOUNTING DEPARTMENT</t>
-  </si>
-  <si>
     <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
-    <t>HR DEPARTMENT</t>
-  </si>
-  <si>
-    <t>EMD DEPARTMENT</t>
-  </si>
-  <si>
     <t>GENERAL COMMON EXPENSE</t>
   </si>
   <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>QH2</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
     <t>ELISTON PLACE</t>
-  </si>
-  <si>
-    <t>QH2</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
 </sst>
 </file>
@@ -488,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,16 +498,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>15194.79</v>
+        <v>5698.73</v>
       </c>
       <c r="E2">
-        <v>1823.3748</v>
+        <v>683.8475999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -533,16 +515,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>555</v>
+        <v>2892.66</v>
       </c>
       <c r="E3">
-        <v>66.59999999999999</v>
+        <v>347.1192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -550,16 +532,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>4323.45</v>
+        <v>28016.96</v>
       </c>
       <c r="E4">
-        <v>518.814</v>
+        <v>3362.0352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -567,16 +549,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>15228.09</v>
+        <v>6660</v>
       </c>
       <c r="E5">
-        <v>1827.3708</v>
+        <v>799.1999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -584,16 +566,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>3274.5</v>
+        <v>17809.53</v>
       </c>
       <c r="E6">
-        <v>392.94</v>
+        <v>2137.1436</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -601,16 +583,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>555</v>
+        <v>2118.27</v>
       </c>
       <c r="E7">
-        <v>66.59999999999999</v>
+        <v>254.1924</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -618,16 +600,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>555</v>
+        <v>2731.71</v>
       </c>
       <c r="E8">
-        <v>66.59999999999999</v>
+        <v>327.8052</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -635,16 +617,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>555</v>
+        <v>10633.8</v>
       </c>
       <c r="E9">
-        <v>66.59999999999999</v>
+        <v>1276.056</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -652,16 +634,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10">
-        <v>11018.27</v>
+        <v>34406.67</v>
       </c>
       <c r="E10">
-        <v>1322.1924</v>
+        <v>4128.8004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -669,16 +651,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>2775</v>
+        <v>4018.2</v>
       </c>
       <c r="E11">
-        <v>333</v>
+        <v>482.184</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -686,16 +668,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>555</v>
+        <v>25276.92</v>
       </c>
       <c r="E12">
-        <v>66.59999999999999</v>
+        <v>3033.230399999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -703,16 +685,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>9817.950000000001</v>
+        <v>555</v>
       </c>
       <c r="E13">
-        <v>1178.154</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -720,16 +702,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>555</v>
+        <v>721.5</v>
       </c>
       <c r="E14">
-        <v>66.59999999999999</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -737,135 +719,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>555</v>
+        <v>17127.26</v>
       </c>
       <c r="E15">
-        <v>66.59999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>1989.12</v>
-      </c>
-      <c r="E16">
-        <v>238.6944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>1831.5</v>
-      </c>
-      <c r="E17">
-        <v>219.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>555</v>
-      </c>
-      <c r="E18">
-        <v>66.59999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>555</v>
-      </c>
-      <c r="E19">
-        <v>66.59999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>666</v>
-      </c>
-      <c r="E20">
-        <v>79.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21">
-        <v>555</v>
-      </c>
-      <c r="E21">
-        <v>66.59999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>1165.5</v>
-      </c>
-      <c r="E22">
-        <v>139.86</v>
+        <v>2055.2712</v>
       </c>
     </row>
   </sheetData>
